--- a/Black_Hole/reports/report.xlsx
+++ b/Black_Hole/reports/report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,6 +514,652 @@
         <v>0.723087573554862</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.07144506001846722</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2520083102493075</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7819713758079384</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9107051196366543</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[4, 6, 9, 10, 11, 14, 16, 22, 23, 37, 38, 43, 49, 53, 59, 64, 68, 69, 85, 98, 5, 7, 12, 24, 31, 57, 62, 65, 89, 42, 84, 182, 256, 274, 131, 170, 180, 191, 247, 15, 270, 0, 74, 97, 277, 32, 133, 275, 107, 142, 273, 221, 206, 108, 244, 187, 235, 166, 29, 45, 63, 90, 151, 124, 135, 136, 106, 126, 266, 231, 48, 161, 120, 264, 54, 96, 19, 82, 154, 28, 103, 143, 217, 213, 269, 276, 51, 239, 121, 226, 105, 115, 109, 156, 61, 249, 130, 146]</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>98</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.09086188992731049</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.3165282104534441</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.7287988923502927</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.06798245614035088</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2323868882733149</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7929362880886417</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9153580277545169</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[1, 3, 5, 11, 13, 22, 24, 31, 33, 34, 36, 38, 39, 40, 45, 49, 54, 55, 56, 60, 63, 67, 83, 87, 88, 8, 27, 47, 51, 78, 80, 95, 6, 89, 108, 175, 192, 211, 52, 96, 251, 14, 171, 216, 139, 118, 125, 28, 254, 29, 84, 172, 90, 276, 165, 233, 122, 21, 85, 155, 187, 225, 271, 61, 112, 115, 219, 58, 145, 249, 91, 163, 278, 19, 231, 183, 263, 267, 151, 206, 75, 132, 9, 147, 130, 64, 227, 248, 92, 124, 74]</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>91</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.09570785739010038</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.3402128764278297</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.7081169955001718</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.06763619575253925</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2423765004616805</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7928785780240057</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.916598313259399</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[2, 6, 7, 11, 14, 15, 20, 21, 22, 27, 32, 34, 37, 38, 39, 41, 43, 45, 57, 66, 74, 85, 87, 25, 47, 49, 51, 71, 81, 86, 72, 101, 141, 218, 55, 113, 265, 206, 95, 268, 257, 115, 112, 166, 97, 99, 69, 150, 271, 19, 108, 114, 117, 165, 111, 100, 272, 5, 23, 52, 10, 28, 119, 103, 255, 94, 205, 105, 64, 48, 203, 198, 270, 189, 76, 90, 193, 216, 278, 12, 56, 178, 227, 232, 246, 50]</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>86</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.09588092765662859</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.3302440290758047</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.7191934925579776</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.06267313019390582</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2157375346260388</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8142313019390574</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.916790756852596</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[0, 9, 11, 16, 17, 22, 26, 32, 35, 37, 38, 40, 46, 55, 57, 64, 66, 71, 77, 78, 81, 83, 86, 103, 105, 109, 111, 25, 95, 97, 106, 114, 34, 39, 56, 69, 148, 157, 169, 188, 212, 259, 123, 127, 262, 115, 91, 243, 210, 50, 138, 146, 163, 213, 80, 273, 192, 99, 89, 92, 139, 152, 190, 161, 224, 119, 7, 117, 21, 96, 102, 61, 171, 219, 230, 126, 253, 216, 194, 197, 130, 250, 54, 6, 23, 278, 72, 244, 256, 270, 28, 134, 8, 131, 14, 90, 229, 252, 225, 120, 33, 75, 116, 156, 121, 231, 187, 203, 60, 238, 20, 236]</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>112</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.09778470058843891</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.3234596746278989</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.7264624437521624</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0672899353647276</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2370267774699908</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7897045244690664</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9144216319953651</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>[8, 11, 14, 15, 18, 24, 33, 37, 38, 46, 56, 59, 63, 64, 65, 67, 73, 76, 79, 82, 85, 88, 89, 96, 99, 20, 28, 32, 61, 69, 87, 111, 21, 42, 57, 72, 117, 163, 196, 204, 218, 251, 254, 177, 214, 234, 176, 169, 171, 123, 229, 257, 109, 94, 193, 267, 201, 211, 10, 170, 122, 162, 221, 261, 12, 17, 40, 48, 77, 118, 137, 145, 150, 198, 244, 270, 141, 86, 49, 258, 265, 71, 7, 47, 101, 112, 264, 275, 180, 128, 41, 55, 188, 132, 53, 107, 165, 238, 190, 197]</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>100</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.09830391138802354</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.3321910695742471</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.7142609899619231</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.06659741458910434</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.234862650046168</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7951869806094174</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.916358320646864</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>[0, 6, 10, 11, 12, 14, 18, 19, 20, 22, 23, 25, 26, 33, 35, 49, 52, 56, 58, 60, 64, 77, 80, 82, 89, 90, 94, 46, 3, 71, 98, 102, 107, 128, 142, 247, 251, 266, 274, 120, 125, 229, 205, 253, 139, 243, 126, 4, 1, 213, 137, 124, 109, 5, 259, 228, 41, 8, 226, 130, 55, 47, 85, 73, 144, 223, 180, 40, 118, 101, 208, 146, 115, 31, 178, 196, 193, 278, 103, 190, 267, 112, 122, 233, 9, 36, 42, 59, 86, 93, 157, 95, 91]</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>93</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.09588092765662859</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.3249740394600208</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.722914503288333</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.06486611265004617</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2204582179132041</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8037280701754372</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9175175503826076</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>[0, 1, 2, 5, 12, 13, 15, 31, 37, 45, 56, 57, 58, 68, 75, 84, 87, 88, 94, 95, 100, 6, 8, 22, 32, 66, 101, 108, 112, 114, 120, 137, 157, 170, 211, 248, 3, 11, 53, 141, 182, 208, 48, 81, 128, 200, 119, 163, 185, 238, 90, 195, 127, 43, 126, 138, 139, 24, 28, 78, 19, 110, 124, 140, 143, 176, 177, 218, 241, 246, 262, 46, 104, 155, 261, 122, 91, 181, 98, 173, 107, 17, 85, 271, 129, 233, 7, 234, 199, 99, 222, 160, 212, 71, 109, 69]</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>96</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.09691934925579786</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.3268691588785047</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.7219626168224291</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.06671283471837489</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2379847645429363</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.794436749769159</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9142703421646015</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>[2, 7, 15, 16, 18, 22, 30, 34, 36, 45, 48, 51, 53, 55, 56, 57, 61, 64, 72, 75, 87, 90, 101, 102, 0, 1, 8, 11, 13, 25, 41, 47, 91, 100, 74, 235, 215, 191, 228, 160, 187, 12, 81, 180, 40, 46, 133, 119, 155, 253, 210, 163, 124, 130, 148, 227, 138, 4, 68, 108, 266, 202, 157, 17, 274, 109, 59, 77, 83, 113, 128, 150, 139, 125, 137, 43, 205, 211, 175, 170, 241, 134, 223, 23, 32, 54, 79, 84, 49, 121, 181, 267, 254, 110, 237, 188, 116, 149, 256, 20, 65, 93, 127, 257]</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>104</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.09086188992731049</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.3251990308065075</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.727933541017652</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.07052169898430287</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2459949215143121</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7877423822714665</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9146607961185762</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>[0, 2, 4, 6, 8, 10, 11, 12, 14, 16, 21, 23, 26, 29, 45, 47, 49, 51, 52, 55, 56, 60, 65, 70, 74, 81, 82, 86, 87, 89, 90, 93, 95, 96, 97, 99, 108, 109, 110, 112, 113, 19, 71, 75, 114, 139, 156, 200, 201, 218, 259, 265, 137, 246, 210, 235, 46, 146, 231, 181, 183, 196, 205, 228, 127, 33, 107, 104, 171, 162, 182, 30, 141, 207, 41, 91, 123, 180, 5, 142, 98]</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>81</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.09899619245413638</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.3343977154724818</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.7133091034960172</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.06382733148661127</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.2254616805170822</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8033240997229909</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9203427728208697</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>[7, 10, 12, 13, 19, 32, 33, 37, 43, 45, 46, 47, 50, 51, 57, 61, 63, 64, 66, 69, 76, 77, 3, 9, 17, 20, 28, 53, 59, 65, 23, 91, 42, 105, 95, 144, 236, 163, 231, 244, 273, 172, 156, 247, 102, 85, 233, 40, 241, 100, 183, 191, 152, 26, 41, 87, 182, 265, 141, 111, 213, 115, 179, 11, 257, 174, 223, 8, 1, 123, 127, 106, 140, 119, 129, 228, 128, 0, 199, 225, 216, 75, 97, 121, 205, 238]</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>86</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.09691934925579786</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.3298286604361371</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.7133091034960183</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.06578947368421052</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.236645891043398</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7983610341643574</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9182332674619514</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>[3, 4, 5, 8, 10, 13, 18, 24, 28, 29, 35, 38, 44, 46, 49, 50, 51, 61, 62, 66, 71, 74, 6, 40, 45, 85, 68, 86, 89, 95, 16, 165, 225, 214, 124, 105, 122, 145, 269, 118, 249, 129, 32, 100, 121, 216, 232, 182, 234, 78, 149, 197, 202, 274, 240, 173, 106, 52, 161, 226, 275, 238, 270, 112, 259, 128, 254, 266, 186, 114, 92, 75, 14, 117, 97, 201, 41, 101, 224, 245, 76, 82, 102, 190, 115, 253, 56]</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>87</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.09484250605745932</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.3321391484942887</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.7137417791623379</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.06959833795013851</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2145371652816251</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8028047091412731</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9128744721839299</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>[5, 6, 14, 17, 27, 59, 62, 68, 70, 82, 84, 86, 87, 88, 94, 95, 0, 9, 43, 52, 53, 55, 75, 85, 57, 110, 21, 50, 191, 167, 190, 232, 3, 79, 234, 226, 216, 115, 209, 121, 46, 276, 168, 119, 257, 48, 65, 39, 118, 180, 56, 112, 135, 12, 15, 37, 58, 81, 23, 116, 45, 208, 96, 213, 44, 61, 33, 223, 152, 108, 159, 249, 104, 35, 41, 49, 245, 153, 172, 177, 19, 224, 51, 198, 2, 123, 8, 101, 176, 246, 233, 255, 28, 99, 32, 122]</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>96</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.09657320872274143</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.289460020768432</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.7336448598130828</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.06763619575253925</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2227608494921514</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.800554016620498</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9175002993972258</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>[0, 5, 11, 19, 21, 22, 47, 48, 49, 52, 53, 55, 61, 66, 68, 84, 85, 86, 89, 93, 35, 54, 72, 82, 95, 64, 102, 140, 181, 145, 30, 2, 270, 216, 12, 122, 67, 123, 81, 80, 200, 111, 57, 6, 125, 105, 98, 76, 246, 198, 14, 40, 41, 42, 94, 221, 115, 129, 219, 158, 218, 203, 112, 103, 26, 37, 38, 234, 206, 267, 223, 185, 101, 32, 24, 124, 130, 31, 27, 18, 108]</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>81</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0927656628591208</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.3084371754932502</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.7375389408099676</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.06578947368421052</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2239958448753463</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7983610341643574</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9162519873634655</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>[2, 10, 17, 18, 21, 22, 34, 35, 37, 40, 42, 47, 48, 49, 51, 52, 56, 57, 61, 63, 64, 74, 80, 82, 85, 89, 96, 100, 7, 12, 19, 44, 46, 59, 68, 99, 131, 125, 231, 142, 180, 126, 140, 206, 278, 262, 109, 232, 255, 190, 258, 275, 167, 276, 250, 110, 147, 221, 242, 193, 214, 32, 115, 105, 83, 104, 124, 270, 179, 188, 252, 183, 191, 132, 145, 185, 116, 134, 118, 27, 36, 71, 77, 94, 16, 166, 203, 156, 257, 15, 3, 211, 240, 163, 90, 229, 14, 73]</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>98</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0976116303219107</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.3209155417099342</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.7164243682935258</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.07029085872576177</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2582063711911358</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7774699907663877</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9168729203887951</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>[0, 1, 3, 11, 12, 15, 21, 33, 35, 39, 43, 47, 48, 51, 52, 54, 56, 16, 22, 24, 27, 29, 53, 62, 69, 76, 83, 88, 92, 94, 100, 118, 205, 246, 61, 188, 168, 109, 172, 133, 278, 211, 253, 268, 4, 26, 75, 85, 34, 77, 68, 166, 134, 224, 263, 239, 162, 96, 119, 80, 220, 20, 65, 108, 124, 128, 274, 149, 86, 89]</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>70</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.09899619245413638</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.3381273797161647</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.711491865697472</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.07040627885503231</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.254980378578024</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7799515235457046</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.915855882901446</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>[7, 8, 11, 15, 21, 24, 30, 32, 35, 37, 38, 41, 43, 52, 55, 56, 58, 62, 64, 72, 73, 6, 17, 27, 29, 45, 51, 54, 23, 189, 94, 276, 216, 118, 220, 124, 186, 20, 252, 84, 110, 112, 226, 104, 108, 100, 47, 190, 159, 16, 13, 136, 157, 264, 48, 85, 89, 130, 68, 213, 86, 114, 217, 87, 90, 122, 116, 164, 49, 9, 80, 278, 209, 59, 169]</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>75</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.09847698165455175</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.3523364485981308</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.7043959847698151</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.06278855032317636</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2369402123730378</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.7955332409972288</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9184745684798351</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>[5, 16, 18, 21, 27, 28, 30, 33, 39, 44, 46, 54, 57, 62, 72, 84, 95, 100, 4, 35, 38, 42, 58, 59, 75, 94, 50, 86, 88, 141, 276, 208, 191, 142, 260, 227, 17, 19, 10, 90, 127, 246, 269, 212, 205, 122, 257, 114, 123, 220, 163, 37, 134, 223, 138, 1, 6, 51, 87, 67, 154, 249, 263, 60, 45, 110, 146, 161, 150, 121, 126, 159, 164, 254, 153, 209, 52, 129, 189, 85, 156, 241, 92, 182, 78, 112, 238, 8, 12, 70, 275, 244, 7, 103, 99, 272, 224, 201, 55, 49, 116, 149]</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>102</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.08965039806161301</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.331386292834891</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.7178089304257523</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.06394275161588181</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.2131694367497692</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8134810710987984</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9164453185667888</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>[0, 2, 9, 10, 16, 17, 31, 35, 45, 49, 51, 56, 57, 68, 77, 82, 85, 86, 93, 98, 101, 106, 110, 8, 13, 25, 39, 65, 73, 99, 115, 130, 18, 37, 182, 228, 246, 102, 131, 209, 198, 247, 212, 191, 195, 217, 259, 113, 265, 173, 203, 275, 238, 199, 219, 153, 211, 201, 202, 254, 52, 261, 165, 5, 11, 14, 15, 32, 46, 53, 87, 27, 108, 132, 151, 129, 169, 237, 260, 187, 167, 20, 114, 96, 226, 197, 141, 196, 152, 164, 95, 185, 19, 220, 180, 137, 121, 241, 215, 61, 268, 125, 224, 29, 162, 276, 116]</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>107</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.08670820353063344</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.285877466251298</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.7500865351332623</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.07271468144044321</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.2742843951985226</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.7668513388734967</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.913401614026356</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>[2, 5, 6, 11, 14, 16, 29, 39, 45, 54, 56, 64, 74, 82, 89, 91, 97, 100, 3, 25, 32, 33, 44, 46, 108, 9, 60, 70, 116, 175, 262, 36, 237, 180, 95, 118, 124, 119, 208, 184, 253, 10, 38, 167, 183, 186, 47, 147, 22, 104, 117, 142, 158, 225, 185, 248, 40, 13, 228, 169, 265, 241, 78, 8, 79, 223, 215, 19, 17, 217, 105, 219, 67, 80, 94, 137]</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>76</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.09778470058843891</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.3417964693665628</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.7087227414330203</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
